--- a/Excels/411069917.xlsx
+++ b/Excels/411069917.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>آیدی</t>
   </si>
@@ -47,79 +47,88 @@
     <t>توضیحات مدیر</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>محمدرضا فتح‌اللهی</t>
-  </si>
-  <si>
-    <t>mrfatolahi1</t>
-  </si>
-  <si>
-    <t>80000</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>امیرعباس محمدی</t>
+  </si>
+  <si>
+    <t>Amirabas_brj</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>4 تیر 1401</t>
+  </si>
+  <si>
+    <t>22:12:43</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>سسسسس</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>علی حاتمی</t>
+  </si>
+  <si>
+    <t>aaaa23434224</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>23:6:42</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>ابراهیم تقوی</t>
+  </si>
+  <si>
+    <t>ebraaaaaaahim7</t>
+  </si>
+  <si>
+    <t>98765443221</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>4 تیر 1401</t>
-  </si>
-  <si>
-    <t>15:17:6</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>هشت هزار تومان بابت آبمیوه</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>15:21:24</t>
-  </si>
-  <si>
-    <t>نه هزار تومان بابت چایی</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>علی حاتمی</t>
-  </si>
-  <si>
-    <t>aaaa23434224</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>23:6:42</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>23:43:24</t>
-  </si>
-  <si>
-    <t>adsfa</t>
+    <t>5 تیر 1401</t>
+  </si>
+  <si>
+    <t>0:9:57</t>
+  </si>
+  <si>
+    <t>پول زور</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>0:16:32</t>
+  </si>
+  <si>
+    <t>fgrgrg</t>
   </si>
   <si>
     <t>16</t>
@@ -131,25 +140,22 @@
     <t>10</t>
   </si>
   <si>
-    <t>5 تیر 1401</t>
-  </si>
-  <si>
     <t>12:28:23</t>
   </si>
   <si>
     <t>EEE</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>6 تیر 1401</t>
-  </si>
-  <si>
-    <t>15:59:48</t>
-  </si>
-  <si>
-    <t>سیدسهیل</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>12:29:35</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>12:38:48</t>
   </si>
 </sst>
 </file>
@@ -194,7 +200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -275,22 +281,22 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -299,7 +305,7 @@
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
@@ -307,25 +313,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -334,7 +340,7 @@
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -342,7 +348,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -351,16 +357,16 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -369,7 +375,7 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
@@ -377,25 +383,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
@@ -404,7 +410,7 @@
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
@@ -412,36 +418,71 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
       <c r="K7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Excels/411069917.xlsx
+++ b/Excels/411069917.xlsx
@@ -6,69 +6,48 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Creditors List" r:id="rId3" sheetId="1"/>
+    <sheet name="تراکنش‌ها" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>آیدی</t>
   </si>
   <si>
-    <t>نام و نام خانوادگی</t>
-  </si>
-  <si>
-    <t>نام‌ کاربری تلگرام</t>
-  </si>
-  <si>
-    <t>ایمیل</t>
-  </si>
-  <si>
-    <t>شماره تلفن</t>
-  </si>
-  <si>
-    <t>تراز مالی</t>
-  </si>
-  <si>
-    <t>103946103</t>
-  </si>
-  <si>
-    <t>ابراهیم تقوی</t>
-  </si>
-  <si>
-    <t>ebraaaaaaahim7</t>
-  </si>
-  <si>
-    <t>etebrahimt7@gmail.com</t>
-  </si>
-  <si>
-    <t>09391511288</t>
-  </si>
-  <si>
-    <t>-1223444433249769</t>
-  </si>
-  <si>
-    <t>1354039598</t>
-  </si>
-  <si>
-    <t>امیرعباس محمدی</t>
-  </si>
-  <si>
-    <t>Amirabas_brj</t>
-  </si>
-  <si>
-    <t>amir10abas@gmail.com</t>
-  </si>
-  <si>
-    <t>09013794556</t>
-  </si>
-  <si>
-    <t>-1102000</t>
-  </si>
-  <si>
-    <t>411069917</t>
+    <t>نام و نام خانوادگی کاربر</t>
+  </si>
+  <si>
+    <t>نام‌ کاربری تلگرام کاربر</t>
+  </si>
+  <si>
+    <t>مبلغ</t>
+  </si>
+  <si>
+    <t>کارمزد</t>
+  </si>
+  <si>
+    <t>تاریخ</t>
+  </si>
+  <si>
+    <t>زمان</t>
+  </si>
+  <si>
+    <t>وضعیت تایید</t>
+  </si>
+  <si>
+    <t>دارای فاکتور کاغذی</t>
+  </si>
+  <si>
+    <t>توضیحات کاربر</t>
+  </si>
+  <si>
+    <t>توضیحات مدیر</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>محمدرضا فتح‌اللهی</t>
@@ -77,16 +56,40 @@
     <t>mrfatolahi1</t>
   </si>
   <si>
-    <t>fatolahi.cs@yahoo.com</t>
-  </si>
-  <si>
-    <t>09182606160</t>
-  </si>
-  <si>
-    <t>-1303444</t>
-  </si>
-  <si>
-    <t>568026670</t>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4 تیر 1401</t>
+  </si>
+  <si>
+    <t>15:17:6</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>هشت هزار تومان بابت آبمیوه</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>15:21:24</t>
+  </si>
+  <si>
+    <t>نه هزار تومان بابت چایی</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>علی حاتمی</t>
@@ -95,40 +98,94 @@
     <t>aaaa23434224</t>
   </si>
   <si>
-    <t>fffff@gmail.com</t>
-  </si>
-  <si>
-    <t>00000000</t>
-  </si>
-  <si>
-    <t>-2000</t>
-  </si>
-  <si>
-    <t>625934411</t>
-  </si>
-  <si>
-    <t>احمدرضا سبزواری</t>
-  </si>
-  <si>
-    <t>AHMDSBZ</t>
-  </si>
-  <si>
-    <t>Sabzevarii313@gmail.con</t>
-  </si>
-  <si>
-    <t>0901714991</t>
-  </si>
-  <si>
-    <t>-30888</t>
-  </si>
-  <si>
-    <t>730247586</t>
-  </si>
-  <si>
-    <t>aaaaalllliii</t>
-  </si>
-  <si>
-    <t>-50000</t>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>23:6:42</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>23:43:24</t>
+  </si>
+  <si>
+    <t>adsfa</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5 تیر 1401</t>
+  </si>
+  <si>
+    <t>12:28:23</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6 تیر 1401</t>
+  </si>
+  <si>
+    <t>15:59:48</t>
+  </si>
+  <si>
+    <t>سیدسهیل</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>8 تیر 1401</t>
+  </si>
+  <si>
+    <t>15:50:43</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1111111</t>
+  </si>
+  <si>
+    <t>12412</t>
+  </si>
+  <si>
+    <t>15:53:6</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>توضیحات تغییر یافته</t>
+  </si>
+  <si>
+    <t>مدنمد</t>
   </si>
 </sst>
 </file>
@@ -173,9 +230,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true" rightToLeft="true"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -198,119 +255,300 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7"/>
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/411069917.xlsx
+++ b/Excels/411069917.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>آیدی</t>
   </si>
@@ -47,27 +47,135 @@
     <t>توضیحات مدیر</t>
   </si>
   <si>
-    <t>توضیحات داخلی مدیر</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>محمدرضا فتح‌اللهی</t>
+  </si>
+  <si>
+    <t>mrfatolahi1</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4 تیر 1401</t>
+  </si>
+  <si>
+    <t>15:17:6</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>هشت هزار تومان بابت آبمیوه</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>15:21:24</t>
+  </si>
+  <si>
+    <t>نه هزار تومان بابت چایی</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>علی حاتمی</t>
+  </si>
+  <si>
+    <t>aaaa23434224</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>23:6:42</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>23:43:24</t>
+  </si>
+  <si>
+    <t>adsfa</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5 تیر 1401</t>
+  </si>
+  <si>
+    <t>12:28:23</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6 تیر 1401</t>
+  </si>
+  <si>
+    <t>15:59:48</t>
+  </si>
+  <si>
+    <t>سیدسهیل</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>8 تیر 1401</t>
+  </si>
+  <si>
+    <t>15:50:43</t>
+  </si>
+  <si>
+    <t>AAA</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>محمدرضا فتح‌اللهی</t>
-  </si>
-  <si>
-    <t>mrfatolahi1</t>
-  </si>
-  <si>
     <t>1111111</t>
   </si>
   <si>
     <t>12412</t>
   </si>
   <si>
-    <t>8 تیر 1401</t>
-  </si>
-  <si>
     <t>15:53:6</t>
   </si>
   <si>
@@ -78,9 +186,6 @@
   </si>
   <si>
     <t>asdfa</t>
-  </si>
-  <si>
-    <t>توضیحات داخلی مدیر ثبت شد.</t>
   </si>
 </sst>
 </file>
@@ -125,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -165,46 +270,285 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/411069917.xlsx
+++ b/Excels/411069917.xlsx
@@ -6,33 +6,51 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Creditors List" r:id="rId3" sheetId="1"/>
+    <sheet name="تراکنش‌ها" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>آیدی</t>
   </si>
   <si>
-    <t>نام و نام خانوادگی</t>
-  </si>
-  <si>
-    <t>نام‌ کاربری تلگرام</t>
-  </si>
-  <si>
-    <t>ایمیل</t>
-  </si>
-  <si>
-    <t>شماره تلفن</t>
-  </si>
-  <si>
-    <t>تراز مالی</t>
-  </si>
-  <si>
-    <t>414126212</t>
+    <t>نام و نام خانوادگی کاربر</t>
+  </si>
+  <si>
+    <t>نام‌ کاربری تلگرام کاربر</t>
+  </si>
+  <si>
+    <t>مبلغ</t>
+  </si>
+  <si>
+    <t>کارمزد</t>
+  </si>
+  <si>
+    <t>تاریخ</t>
+  </si>
+  <si>
+    <t>زمان</t>
+  </si>
+  <si>
+    <t>وضعیت تایید</t>
+  </si>
+  <si>
+    <t>دارای فاکتور کاغذی</t>
+  </si>
+  <si>
+    <t>توضیحات کاربر</t>
+  </si>
+  <si>
+    <t>توضیحات مدیر</t>
+  </si>
+  <si>
+    <t>توضیحات داخلی مدیر</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>محمدامین خدابخش</t>
@@ -41,7 +59,103 @@
     <t>makharove</t>
   </si>
   <si>
-    <t>-2500000</t>
+    <t>800000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25 تیر 1401</t>
+  </si>
+  <si>
+    <t>16:22:53</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>بابت ۲ عدد کلید معمولی و ۲ عدد کلید کامپیوتری</t>
+  </si>
+  <si>
+    <t>فاکتور فقط یک مهر دارد، دفعات بعدی حتما ۲ مهر بزنید.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1700000</t>
+  </si>
+  <si>
+    <t>16:26:24</t>
+  </si>
+  <si>
+    <t>بابت مغزی درب</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>علی قائم‌دوست</t>
+  </si>
+  <si>
+    <t>Ali_ghd80</t>
+  </si>
+  <si>
+    <t>586000</t>
+  </si>
+  <si>
+    <t>17:18:26</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>بابت بردن کولر و کپسول‌های موکت به پلاک ۹ با وانت</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2100000</t>
+  </si>
+  <si>
+    <t>22:59:23</t>
+  </si>
+  <si>
+    <t>بابت آلن باسر و مهره</t>
+  </si>
+  <si>
+    <t>فاکتور مهر ندارد، دفعات بعدی حتما ۲ مهر بزنید.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7300000</t>
+  </si>
+  <si>
+    <t>23:5:50</t>
+  </si>
+  <si>
+    <t>بابت کاتر، تیغ کاتر، فازمتر و سایر اقلام مندرج در فاکتور</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4600000</t>
+  </si>
+  <si>
+    <t>23:10:19</t>
+  </si>
+  <si>
+    <t>بابت جعبه ابزار ۳ طبقه رونیکس</t>
   </si>
 </sst>
 </file>
@@ -86,9 +200,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true" rightToLeft="true"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -111,21 +225,251 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
